--- a/Feature-Analysis/Resize Feature/s_20_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_20_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.63731481484</v>
+        <v>738157.63731481484</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.63799768523</v>
+        <v>738157.63799768523</v>
       </c>
       <c r="C3" s="0">
         <v>59.000001847743988</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.63833333331</v>
+        <v>738157.63833333331</v>
       </c>
       <c r="C4" s="0">
         <v>87.999995425343513</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.63868055551</v>
+        <v>738157.63868055551</v>
       </c>
       <c r="C5" s="0">
         <v>117.99999363720417</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.63902777783</v>
+        <v>738157.63902777783</v>
       </c>
       <c r="C6" s="0">
         <v>148.00000190734863</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.6393634259</v>
+        <v>738157.6393634259</v>
       </c>
       <c r="C7" s="0">
         <v>176.99999548494816</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.63973379624</v>
+        <v>738157.63973379624</v>
       </c>
       <c r="C8" s="0">
         <v>208.99999290704727</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.64013888885</v>
+        <v>738157.64013888885</v>
       </c>
       <c r="C9" s="0">
         <v>243.99999417364597</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.64038194448</v>
+        <v>738157.64038194448</v>
       </c>
       <c r="C10" s="0">
         <v>265.00000096857548</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.64075231482</v>
+        <v>738157.64075231482</v>
       </c>
       <c r="C11" s="0">
         <v>296.99999839067459</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.64109953702</v>
+        <v>738157.64109953702</v>
       </c>
       <c r="C12" s="0">
         <v>326.99999660253525</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.64148148149</v>
+        <v>738157.64148148149</v>
       </c>
       <c r="C13" s="0">
         <v>359.99999865889549</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.64180555556</v>
+        <v>738157.64180555556</v>
       </c>
       <c r="C14" s="0">
         <v>387.99999766051769</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.64218750002</v>
+        <v>738157.64218750002</v>
       </c>
       <c r="C15" s="0">
         <v>420.99999971687794</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.64285879629</v>
+        <v>738157.64285879629</v>
       </c>
       <c r="C16" s="0">
         <v>478.99999693036079</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.64320601849</v>
+        <v>738157.64320601849</v>
       </c>
       <c r="C17" s="0">
         <v>508.99999514222145</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.64354166668</v>
+        <v>738157.64354166668</v>
       </c>
       <c r="C18" s="0">
         <v>537.99999877810478</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.64387731487</v>
+        <v>738157.64387731487</v>
       </c>
       <c r="C19" s="0">
         <v>567.00000241398811</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.64427083335</v>
+        <v>738157.64427083335</v>
       </c>
       <c r="C20" s="0">
         <v>600.99999904632568</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.64459490741</v>
+        <v>738157.64459490741</v>
       </c>
       <c r="C21" s="0">
         <v>628.99999804794788</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.64486111107</v>
+        <v>738157.64486111107</v>
       </c>
       <c r="C22" s="0">
         <v>651.99999399483204</v>
@@ -16282,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.6452199074</v>
+        <v>738157.6452199074</v>
       </c>
       <c r="C23" s="0">
         <v>682.99999684095383</v>
@@ -16977,7 +16977,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.64555555559</v>
+        <v>738157.64555555559</v>
       </c>
       <c r="C24" s="0">
         <v>712.00000047683716</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.64596064819</v>
+        <v>738157.64596064819</v>
       </c>
       <c r="C25" s="0">
         <v>747.00000174343586</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.64624999999</v>
+        <v>738157.64624999999</v>
       </c>
       <c r="C26" s="0">
         <v>771.99999690055847</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.64694444439</v>
+        <v>738157.64694444439</v>
       </c>
       <c r="C27" s="0">
         <v>831.99999332427979</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.64729166671</v>
+        <v>738157.64729166671</v>
       </c>
       <c r="C28" s="0">
         <v>862.00000159442425</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.64762731479</v>
+        <v>738157.64762731479</v>
       </c>
       <c r="C29" s="0">
         <v>890.99999517202377</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.64799768524</v>
+        <v>738157.64799768524</v>
       </c>
       <c r="C30" s="0">
         <v>923.00000265240669</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.64834490744</v>
+        <v>738157.64834490744</v>
       </c>
       <c r="C31" s="0">
         <v>953.00000086426735</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.64870370366</v>
+        <v>738157.64870370366</v>
       </c>
       <c r="C32" s="0">
         <v>983.99999365210533</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.64903935185</v>
+        <v>738157.64903935185</v>
       </c>
       <c r="C33" s="0">
         <v>1012.9999972879887</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.64938657405</v>
+        <v>738157.64938657405</v>
       </c>
       <c r="C34" s="0">
         <v>1042.9999954998493</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.64975694439</v>
+        <v>738157.64975694439</v>
       </c>
       <c r="C35" s="0">
         <v>1074.9999929219484</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.65009259258</v>
+        <v>738157.65009259258</v>
       </c>
       <c r="C36" s="0">
         <v>1103.9999965578318</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.65043981478</v>
+        <v>738157.65043981478</v>
       </c>
       <c r="C37" s="0">
         <v>1133.9999947696924</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.65077546297</v>
+        <v>738157.65077546297</v>
       </c>
       <c r="C38" s="0">
         <v>1162.9999984055758</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.65112268517</v>
+        <v>738157.65112268517</v>
       </c>
       <c r="C39" s="0">
         <v>1192.9999966174364</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.65146990737</v>
+        <v>738157.65146990737</v>
       </c>
       <c r="C40" s="0">
         <v>1222.9999948292971</v>
